--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TM-MAS-RAD\radar-technologique\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="-75" yWindow="-465" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -12,18 +17,18 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -118,9 +123,6 @@
     <t>Splunk</t>
   </si>
   <si>
-    <t>Stack ELK</t>
-  </si>
-  <si>
     <t>Node.js</t>
   </si>
   <si>
@@ -139,34 +141,13 @@
     <t>WebStorm</t>
   </si>
   <si>
-    <t>Atom</t>
-  </si>
-  <si>
     <t>Flyway</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>asda</t>
-  </si>
-  <si>
-    <t>asdas</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>adsds</t>
-  </si>
-  <si>
     <t>topic</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>Backend solide permettant d'utiliser les compétences WEB des développeurs. Projet toujours maintenu. En surveillance, car Electron parait mieux maintenu.</t>
@@ -271,9 +252,6 @@
     <t>L'utilisation des version de Java en dessous de 8 est à proscrire pour les nouveaux projets.</t>
   </si>
   <si>
-    <t>Les containers d'applications embarqués représente une alternative aux lourds déploiement sur les serveurs applicatifs.</t>
-  </si>
-  <si>
     <t>Outre le fait que les Machines Virtuelles présentent de réelles avanatges pour un evironnement de développement, il y lieu également de s'assurer que certains points critiques soient optimaux dans ce contexte (RAM, accès disques). Le non support de Docker en font d'office une technologie à exclure pour le poste développeur.</t>
   </si>
   <si>
@@ -281,13 +259,50 @@
   </si>
   <si>
     <t>Gestionnaire de source décentralisée. Offre des performances de travail plus performante que SVN.</t>
+  </si>
+  <si>
+    <t>Flyway est un outil permettant d'effectuer des migrations de données.Il est un sérieux concurrent à Liquibase. Plutôt orienté développeur, il apparait souffrir de moins de fonctionnalités que son grand frère.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebStorm est un IDE fournissant un support pour les projets de type "frontend". </t>
+  </si>
+  <si>
+    <t>norme maintenant validé et complète. Apporte un lot de fonctionnalités nottament le local storage, la géolocalisation, l'allégement du code, et toutes les nouvelles balises et attributs.</t>
+  </si>
+  <si>
+    <t>Dropwizard est une combinaison  de plusieurs outils et frameworks Java légers, dont beaucoup mériteraient d'être mentionnés de leur propre chef. 
+Le package incorpore plusieurs composants intéressants, notamment un serveur HTTP intégré, la prise en charge des points de terminaison RESTful, des métriques opérationnelles et des vérifications d'intégrité intégrées, ainsi que des déploiements simples. Dropwizard est le bon outil pour le bon job, vous permettant de vous concentrer sur la complexité essentielle d'un problème plutôt que sur la plomberie. Déjà utilisé sur un projet en production son utilité et ses fonctionnalités doivent toutefois être encore étudier en profondeur.</t>
+  </si>
+  <si>
+    <t>Spring est bien plus qu'un framework, c'est un écosystème complet fournissant toute ce que la stack JEE fournit. Spring en est un concurrent direct.</t>
+  </si>
+  <si>
+    <t>Spring boot et ses librairies starter fournissent une tuyauterie Spring et des mécanismes d'autoconfiguration très productif. Attention toutefois à garder la maitrise des dépendances.</t>
+  </si>
+  <si>
+    <t>Jquery est utilisé sur plusieurs projets. C'est une librairie qui à encore du sens sur les projets "old-school". Pour les nouveaux projets, il n'y a plus d'intérêt à l'utiliser spécifiquement.</t>
+  </si>
+  <si>
+    <t>Node.js en tant que plateforme à encore besoin d'ètre étudier pour en ressortir les fonctionnalités et les besoins qu'il pourrait combler.</t>
+  </si>
+  <si>
+    <t>ElasticSearch</t>
+  </si>
+  <si>
+    <t>ElasticSearch est la référence en matière de moteur d'indexation. Ses possibilités complète sont encore trop peu utilisés et cela nécessite une montée en compétences afin d'en saisir les tenants et les aboutissants.</t>
+  </si>
+  <si>
+    <t>Logstash</t>
+  </si>
+  <si>
+    <t>Logstatsh est un ETL (Extract Transform Load) compagnon idéal de ElastiSearch. Très gourmand en ressources son utilité doit encore être éprouvée.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -316,6 +331,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -343,13 +364,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -365,6 +390,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -694,20 +722,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="142.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="17">
+    <row r="1" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -740,24 +768,24 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="112">
+    <row r="2" spans="1:19" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -773,24 +801,24 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="112">
+    <row r="3" spans="1:19" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -806,24 +834,24 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="17">
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -839,7 +867,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="64">
+    <row r="5" spans="1:19" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,16 +875,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -872,7 +900,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="17">
+    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -880,15 +908,17 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -903,24 +933,24 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="17">
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -936,23 +966,25 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="17">
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -967,24 +999,24 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="17">
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1000,24 +1032,24 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="17">
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>47</v>
+      <c r="F10" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1033,24 +1065,24 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="17">
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1066,24 +1098,24 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="17">
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1099,7 +1131,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="17">
+    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1107,16 +1139,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>47</v>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1132,24 +1164,24 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="17">
+    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1165,24 +1197,24 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="17">
+    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1198,24 +1230,24 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="17">
+    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>47</v>
+      <c r="F16" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1231,24 +1263,24 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" ht="17">
+    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>47</v>
+      <c r="F17" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1264,24 +1296,24 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="17">
+    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1297,7 +1329,7 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="17">
+    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1305,7 +1337,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>5</v>
@@ -1313,8 +1345,8 @@
       <c r="E19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>47</v>
+      <c r="F19" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1330,15 +1362,15 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="17">
+    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>5</v>
@@ -1346,13 +1378,13 @@
       <c r="E20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>47</v>
+      <c r="F20" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1365,7 +1397,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="17">
+    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1373,16 +1405,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1398,24 +1430,24 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" ht="17">
+    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1431,24 +1463,24 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" ht="17">
+    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1464,24 +1496,24 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" ht="17">
+    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1497,25 +1529,23 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" ht="17">
-      <c r="A25" s="1" t="s">
-        <v>31</v>
+    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1530,24 +1560,24 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" ht="17">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
+    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>47</v>
+      <c r="D26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1563,24 +1593,24 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" ht="17">
+    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1596,24 +1626,24 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" ht="17">
+    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1629,24 +1659,24 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" ht="17">
+    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1662,24 +1692,24 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" ht="17">
+    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1695,24 +1725,24 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" ht="17">
+    <row r="31" spans="1:19" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1728,24 +1758,24 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" ht="17">
+    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>47</v>
+      <c r="E32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1761,24 +1791,24 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="17">
+    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1796,7 +1826,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -1829,56 +1859,56 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>FALSE</t>
   </si>
   <si>
     <t>WebSphere Application Server</t>
@@ -225,9 +222,6 @@
     <t>L'IDE Intelij a été adopté sur les nouveaux projets et fournit un IDE robuste et performant. Spécialisé dans le langage Java, il apporte une réeele plus value en terme de réalisation et de support au développeur.</t>
   </si>
   <si>
-    <t>NEW</t>
-  </si>
-  <si>
     <t>La centralisation du traitement des données dans une application de type Single Page Application, devient une condition monimale pour maintenir uen strcuture du code sur le longterme</t>
   </si>
   <si>
@@ -274,9 +268,6 @@
 Le package incorpore plusieurs composants intéressants, notamment un serveur HTTP intégré, la prise en charge des points de terminaison RESTful, des métriques opérationnelles et des vérifications d'intégrité intégrées, ainsi que des déploiements simples. Dropwizard est le bon outil pour le bon job, vous permettant de vous concentrer sur la complexité essentielle d'un problème plutôt que sur la plomberie. Déjà utilisé sur un projet en production son utilité et ses fonctionnalités doivent toutefois être encore étudier en profondeur.</t>
   </si>
   <si>
-    <t>Spring est bien plus qu'un framework, c'est un écosystème complet fournissant toute ce que la stack JEE fournit. Spring en est un concurrent direct.</t>
-  </si>
-  <si>
     <t>Spring boot et ses librairies starter fournissent une tuyauterie Spring et des mécanismes d'autoconfiguration très productif. Attention toutefois à garder la maitrise des dépendances.</t>
   </si>
   <si>
@@ -296,13 +287,55 @@
   </si>
   <si>
     <t>Logstatsh est un ETL (Extract Transform Load) compagnon idéal de ElastiSearch. Très gourmand en ressources son utilité doit encore être éprouvée.</t>
+  </si>
+  <si>
+    <t>Spring Cloud continue d'évoluer et d'ajouter de nouvelles fonctionnalités intéressantes. La prise en charge de la liaison à Kafka Streams, par exemple, dans le projet spring-cloud-streams, facilite la création d'applications basées sur des messages avec des connecteurs pour Kafka et RabbitMQ. Les équipes que nous utilisons l'apprécient la simplicité qu'elle apporte à l'utilisation d'infrastructures parfois complexes, telles que ZooKeeper, et la prise en charge des problèmes courants que nous devons résoudre lors de la construction de systèmes distribués, par exemple avec Spring-Cloud-Sleuth.</t>
+  </si>
+  <si>
+    <t>IBM DB2</t>
+  </si>
+  <si>
+    <t>IBM DB2 est le SGBDR historiquement utilisé. Comme tous produits IBM il souffre de sa complexité et de sa documentation difficilement déchiffrable. Comme beaucoup de produit propriétaire, il n'a pas de base de fonctionnalité de "containerisation" clef en main. Toutefois, BD2 reste une base de données relationelles fournissant des fnctionnalités complètes.</t>
+  </si>
+  <si>
+    <t>Spring Cloud</t>
+  </si>
+  <si>
+    <t>Spring est bien plus qu'un framework, c'est un écosystème complet fournissant toute ce que la stack JEE fournit. Spring en est un concurrent direct. Faire attention à Spring, qui cache beaucoup de complexité, et qui en cas de problème peut s'avérer complexe à apréhender.</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Plus que l'outil Docker en soi, c'est la méthode de "containerisation" qui apporte à tous niveaux de réels avantages. La maturité et la montée en compétence est encore à développer, mais les apports de ce soutils sont indéniables.</t>
+  </si>
+  <si>
+    <t>Apache Active MQ</t>
+  </si>
+  <si>
+    <t>Apache Kafka</t>
+  </si>
+  <si>
+    <t>Akka</t>
+  </si>
+  <si>
+    <t>Apache Camel</t>
+  </si>
+  <si>
+    <t>Dans les environnements de systèmes connectés d'aujourd'hui, presque tous les nouveaux développements doivent s'intégrer aux applications et services existants. Conjointement à l'adoption de bus de messages simples et de techniques d'intégration aux abords d'un système, l'utilité d'Apache Camel pour effectuer les tâches de pontage de protocole, de transformation de message et de routage des messages communes à ces intégrations. L'interface Java fluide de Camel, la prise en charge des tests unitaires et les connecteurs pour de nombreux transports et formats de messages différents fournissent une couche anti-corruption efficace lors de l'implémentation d'applications distribuées.</t>
+  </si>
+  <si>
+    <t>Akka est une boîte à outils et un environnement d'exécution pour la création d'applications pilotées par des événements hautement concurrentes, distribuées et tolérantes aux pannes sur la machine virtuelle Java. Il propose des processus événementiels très légers avec environ 2,7 millions d'acteurs par Go de RAM et un modèle de tolérance aux pannes «laissez-tomber» conçu pour fonctionner dans un environnement distribué. Akka peut être utilisé comme une bibliothèque pour les applications Web ou comme un noyau autonome dans lequel déposer une application.</t>
+  </si>
+  <si>
+    <t>Apache Kafka continue de prendre de l'ampleur en tant que framework de messagerie open source qui fournit une solution pour la publication de flux d'événements commandés à un grand nombre de consommateurs légers et indépendants. Configurer Kafka n'est pas trivial, mais les retours sont globalement positives avec ce framework.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -337,6 +370,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -364,7 +408,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -374,6 +418,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -720,13 +771,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
@@ -735,7 +786,7 @@
     <col min="5" max="5" width="142.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -768,24 +819,24 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="115.5">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -801,24 +852,24 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="115.5">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -834,24 +885,24 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="16.5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -867,24 +918,24 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="66">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -900,24 +951,24 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="16.5">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -933,24 +984,24 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="16.5">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -966,24 +1017,24 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="16.5">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -999,24 +1050,24 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="16.5">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1032,24 +1083,24 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="16.5">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1065,24 +1116,24 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="16.5">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1098,24 +1149,24 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="16.5">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1131,24 +1182,24 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="16.5">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1164,24 +1215,24 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="16.5">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1197,24 +1248,24 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="16.5">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1230,24 +1281,24 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16.5">
       <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1263,24 +1314,24 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="16.5">
       <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1296,24 +1347,24 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="16.5">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1329,24 +1380,24 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="16.5">
       <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1362,29 +1413,29 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="16.5">
       <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1397,24 +1448,24 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="16.5">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1430,24 +1481,24 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="16.5">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1463,24 +1514,24 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="16.5">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1496,24 +1547,24 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="16.5">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1529,23 +1580,25 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="16.5">
       <c r="A25" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1560,24 +1613,24 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="16.5">
       <c r="A26" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1593,24 +1646,24 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="16.5">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1626,24 +1679,24 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="16.5">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1659,24 +1712,24 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="16.5">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1692,24 +1745,24 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="16.5">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1725,24 +1778,24 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="82.5">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1758,24 +1811,24 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="16.5">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1791,24 +1844,24 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="16.5">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1824,6 +1877,140 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
+    <row r="34" spans="1:19" ht="16.5">
+      <c r="A34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="16.5">
+      <c r="A35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="16.5">
+      <c r="A36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="16.5">
+      <c r="A37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="16.5">
+      <c r="A38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="16.5">
+      <c r="A39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="78.75">
+      <c r="A40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -1834,13 +2021,13 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B33</xm:sqref>
+          <xm:sqref>B2:B40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$A$8:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C33</xm:sqref>
+          <xm:sqref>C2:C40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1859,56 +2046,56 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>Apache Kafka continue de prendre de l'ampleur en tant que framework de messagerie open source qui fournit une solution pour la publication de flux d'événements commandés à un grand nombre de consommateurs légers et indépendants. Configurer Kafka n'est pas trivial, mais les retours sont globalement positives avec ce framework.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active MQ est un broker de message et un serveur inplémantant les pattern d'intégrations EIP open source. Son utilisation n'a pas encore été évaluée en tant que telle. </t>
   </si>
 </sst>
 </file>
@@ -773,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1946,6 +1949,12 @@
       </c>
       <c r="C37" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>52</v>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -332,6 +332,20 @@
   </si>
   <si>
     <t xml:space="preserve">Active MQ est un broker de message et un serveur inplémantant les pattern d'intégrations EIP open source. Son utilisation n'a pas encore été évaluée en tant que telle. </t>
+  </si>
+  <si>
+    <t>Json Web Token</t>
+  </si>
+  <si>
+    <t>Oauth 1 et 2</t>
+  </si>
+  <si>
+    <t>OAuth est un protocole libre. Il permet d'autoriser un site web, un logiciel ou une application (dite « consommateur ») à utiliser l'API sécurisée d'un autre site web (dit « fournisseur ») pour le compte d'un utilisateur. OAuth n'est pas un protocole d'authentification, mais de « délégation d'autorisation ».
+OAuth permet aux utilisateurs de donner, au site ou logiciel « consommateur », l'accès à des informations personnelles provenant du site « fournisseur » de service ou de données, ceci tout en protégeant le pseudonyme et le mot de passe des utilisateurs. Par exemple, un site de manipulation de vidéos pourra éditer les vidéos enregistrées sur Dailymotion d'un utilisateur des deux sites, à sa demande.</t>
+  </si>
+  <si>
+    <t>JSON Web Token (JWT) est un standard ouvert (&lt;a href="https://tools.ietf.org/html/rfc7519"&gt;RFC 7519&lt;/a&gt;) pour échanger de l'information de manière sécurisée via un jeton signé. Par exemple un serveur pourrait émettre un jeton possédant l'affirmation "utilisateur identifié en tant qu'administrateur" et le fournir au client. Le client pourrait alors vérifier le jeton pour prouver que l'utilisateur est identifié en tant qu'administrateur. Il n'a pas encore été utilisée, mais le principe des jetons web à déjà été implémenté sur un projet.&lt;br/&gt;
+&lt;a href="https://tools.ietf.org/html/rfc7519"&gt;jwt.io&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -774,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2020,6 +2034,46 @@
         <v>52</v>
       </c>
     </row>
+    <row r="41" spans="1:19" ht="78.75">
+      <c r="A41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="78.75">
+      <c r="A42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2030,13 +2084,13 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B40</xm:sqref>
+          <xm:sqref>B2:B42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$A$8:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C40</xm:sqref>
+          <xm:sqref>C2:C42</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -344,8 +344,9 @@
 OAuth permet aux utilisateurs de donner, au site ou logiciel « consommateur », l'accès à des informations personnelles provenant du site « fournisseur » de service ou de données, ceci tout en protégeant le pseudonyme et le mot de passe des utilisateurs. Par exemple, un site de manipulation de vidéos pourra éditer les vidéos enregistrées sur Dailymotion d'un utilisateur des deux sites, à sa demande.</t>
   </si>
   <si>
-    <t>JSON Web Token (JWT) est un standard ouvert (&lt;a href="https://tools.ietf.org/html/rfc7519"&gt;RFC 7519&lt;/a&gt;) pour échanger de l'information de manière sécurisée via un jeton signé. Par exemple un serveur pourrait émettre un jeton possédant l'affirmation "utilisateur identifié en tant qu'administrateur" et le fournir au client. Le client pourrait alors vérifier le jeton pour prouver que l'utilisateur est identifié en tant qu'administrateur. Il n'a pas encore été utilisée, mais le principe des jetons web à déjà été implémenté sur un projet.&lt;br/&gt;
-&lt;a href="https://tools.ietf.org/html/rfc7519"&gt;jwt.io&lt;/a&gt;</t>
+    <t>&lt;img src="https://jwt.io/img/pic_logo.svg" /&gt;&lt;br/&gt;
+JSON Web Token (JWT) est un standard ouvert (&lt;a href="https://tools.ietf.org/html/rfc7519"&gt;RFC 7519&lt;/a&gt;) pour échanger de l'information de manière sécurisée via un jeton signé. Par exemple un serveur pourrait émettre un jeton possédant l'affirmation "utilisateur identifié en tant qu'administrateur" et le fournir au client. Le client pourrait alors vérifier le jeton pour prouver que l'utilisateur est identifié en tant qu'administrateur. Il n'a pas encore été utilisée, mais le principe des jetons web à déjà été implémenté sur un projet.&lt;br/&gt;
+&lt;a href="https://jwt.io/"&gt;jwt.io&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -790,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2034,7 +2035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="78.75">
+    <row r="41" spans="1:19" ht="94.5">
       <c r="A41" s="4" t="s">
         <v>97</v>
       </c>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="115">
   <si>
     <t>name</t>
   </si>
@@ -344,9 +344,50 @@
 OAuth permet aux utilisateurs de donner, au site ou logiciel « consommateur », l'accès à des informations personnelles provenant du site « fournisseur » de service ou de données, ceci tout en protégeant le pseudonyme et le mot de passe des utilisateurs. Par exemple, un site de manipulation de vidéos pourra éditer les vidéos enregistrées sur Dailymotion d'un utilisateur des deux sites, à sa demande.</t>
   </si>
   <si>
-    <t>&lt;img src="https://jwt.io/img/pic_logo.svg" /&gt;&lt;br/&gt;
-JSON Web Token (JWT) est un standard ouvert (&lt;a href="https://tools.ietf.org/html/rfc7519"&gt;RFC 7519&lt;/a&gt;) pour échanger de l'information de manière sécurisée via un jeton signé. Par exemple un serveur pourrait émettre un jeton possédant l'affirmation "utilisateur identifié en tant qu'administrateur" et le fournir au client. Le client pourrait alors vérifier le jeton pour prouver que l'utilisateur est identifié en tant qu'administrateur. Il n'a pas encore été utilisée, mais le principe des jetons web à déjà été implémenté sur un projet.&lt;br/&gt;
+    <t>JSON Web Token (JWT) est un standard ouvert (&lt;a href="https://tools.ietf.org/html/rfc7519"&gt;RFC 7519&lt;/a&gt;) pour échanger de l'information de manière sécurisée via un jeton signé. Par exemple un serveur pourrait émettre un jeton possédant l'affirmation "utilisateur identifié en tant qu'administrateur" et le fournir au client. Le client pourrait alors vérifier le jeton pour prouver que l'utilisateur est identifié en tant qu'administrateur. Il n'a pas encore été utilisée, mais le principe des jetons web à déjà été implémenté sur un projet.&lt;br/&gt;
 &lt;a href="https://jwt.io/"&gt;jwt.io&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postman est une application qui agit comme un client REST dans le navigateur,  permettant de créer des demandes et d'inspecter les réponses. C'est un outil utile pour développer une API ou implémenter un client pour appeler une API existante. Postman prend en charge les jetons OAuth1 et OAuth2 permettant leur ajout aux requêtes si nécessaire. La réponse est disponible sous la forme d'un JSON ou d'un XML préconfiguré. Avec Postman, vous êtes en mesure de récupérer un historique des demandes effectuées pour éditer et tester rapidement la réponse de l'API à différentes données. </t>
+  </si>
+  <si>
+    <t>Revue de code collective</t>
+  </si>
+  <si>
+    <t>Pair programming</t>
+  </si>
+  <si>
+    <t>Les revues de code collective permettent d'après de récentes études, d'identifier jusqu'à 65% des défauts dans le code. Pour être efficiente, les revues de codes doivent être préparés et timeboxer.</t>
+  </si>
+  <si>
+    <t>La pratique du pair programming sur des tâches le nécessitant est une très bonne pratique de partage de connaissance, de montée en compétence, et surtout de qualité.</t>
+  </si>
+  <si>
+    <t>Kong est une passerelle API open source construite et sponsorisée par Mashape, qui propose également une offre d'entreprise intégrant Kong avec ses outils d'analyse d'API et de portail de développeur. L'outil être déployés dans diverses configurations, en tant que passerelle d'API de périphérie ou proxy d'API interne. OpenResty, à travers ses modules Nginx, fournit une base solide et performante, avec des plugins Lua pour les extensions. Kong peut soit utiliser PostgreSQL pour les déploiements à région unique, soit Cassandra pour les configurations multirégion. Nos développeurs ont apprécié la haute performance de Kong, son approche API-first (qui permet l'automatisation de sa configuration) et sa facilité de déploiement en tant que conteneur. À la différence des passerelles API trop ambitieuses, Kong API Gateway possède un ensemble de fonctionnalités plus réduit, mais implémente l'ensemble essentiel de fonctionnalités de passerelle API telles que le contrôle du trafic, la sécurité, la journalisation, la surveillance et l'authentification. Nous sommes ravis d'évaluer Kong dans une configuration de side-car dans un proche avenir.</t>
+  </si>
+  <si>
+    <t>Kong</t>
+  </si>
+  <si>
+    <t>Spring Cloud Contract</t>
+  </si>
+  <si>
+    <t>Pact</t>
+  </si>
+  <si>
+    <t>Consumer Contract Testing pour l'écosystème Spring.</t>
+  </si>
+  <si>
+    <t>Consumer-driven contract testing</t>
+  </si>
+  <si>
+    <t>Consumer Contract Testing, référence en la matière.</t>
+  </si>
+  <si>
+    <t>Pratique de tests basé sur les contrats fournis par les API. Presque une évidence afin de gérer le cycle de vie des API (et l'évolution desdites API)</t>
   </si>
 </sst>
 </file>
@@ -789,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1960,7 +2001,7 @@
         <v>89</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>50</v>
@@ -2000,7 +2041,7 @@
         <v>91</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>50</v>
@@ -2035,7 +2076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="94.5">
+    <row r="41" spans="1:19" ht="78.75">
       <c r="A41" s="4" t="s">
         <v>97</v>
       </c>
@@ -2072,6 +2113,146 @@
         <v>99</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="16.5">
+      <c r="A43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="31.5">
+      <c r="A44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="16.5">
+      <c r="A45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="16.5">
+      <c r="A46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="16.5">
+      <c r="A47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="16.5">
+      <c r="A48" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5">
+      <c r="A49" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2085,13 +2266,13 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B42</xm:sqref>
+          <xm:sqref>B2:B49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$A$8:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C42</xm:sqref>
+          <xm:sqref>C2:C49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
@@ -389,12 +389,57 @@
   <si>
     <t>Pratique de tests basé sur les contrats fournis par les API. Presque une évidence afin de gérer le cycle de vie des API (et l'évolution desdites API)</t>
   </si>
+  <si>
+    <t>Nginx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nginx</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">est un logiciel libre de serveur Web (ou HTTP) ainsi qu'un proxy inverse. Nginx est un système asynchrone (en) par opposition aux serveurs synchrones où chaque requête est traitée par un processus dédié. Au lieu d'exploiter une architecture parallèle et un multiplexage temporel des tâches par le système d'exploitation, Nginx utilise les changements d'état pour gérer plusieurs connexions en même temps ; le traitement de chaque requête est découpé en de nombreuses mini-tâches et permet ainsi de réaliser un multiplexage efficace entre les connexions. </t>
+    </r>
+  </si>
+  <si>
+    <t>Pattern Spécifications</t>
+  </si>
+  <si>
+    <t>03.18</t>
+  </si>
+  <si>
+    <t>Le pattern specification permet une gestion explicite des règles métiers. Il convient bien à la démarche DDD, nottament avec son aspect descriptif.</t>
+  </si>
+  <si>
+    <t>Command Pattern</t>
+  </si>
+  <si>
+    <t>Le commande pattern permet d'implémenter les aspects commadn/event publishing.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -440,6 +485,36 @@
       <color rgb="FF212121"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -467,7 +542,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -484,6 +559,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -830,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2256,6 +2338,66 @@
         <v>52</v>
       </c>
     </row>
+    <row r="50" spans="1:6" ht="16.5">
+      <c r="A50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5">
+      <c r="A51" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5">
+      <c r="A52" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2266,13 +2408,13 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B49</xm:sqref>
+          <xm:sqref>B2:B52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$A$8:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C49</xm:sqref>
+          <xm:sqref>C2:C52</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -211,9 +211,6 @@
 &lt;li&gt;&lt;b&gt;command/écriture&lt;/b&gt;, traitement métier de l’information &lt;/li&gt;
 &lt;li&gt; &lt;b&gt;query/lecture&lt;/b&gt;, restitution de l’information&lt;/li&gt;&lt;br/&gt;
 Ce seul principe fournit un cadre d’architecture extrêmement intéressant pour le développement d’applications, en levant un certain nombre de contraintes et en faisant apparaître de nouvelles opportunités.</t>
-  </si>
-  <si>
-    <t>L'aspect volatile de Eclipse, en font in outil qui reste universellement reconnu pour une multitude de langages. Toutefois, la tendance est d'utiliser des IDE spécialisé par lanage, ce qui apporte une plus grande robustesse et une plus grande productivité pour le développeur.</t>
   </si>
   <si>
     <t>Java Server Page est l'implémentation intiale de la couche présentation pour les applications web Java. De par la ségrégation des composants backend et frontend, l'utilisation des JSP est clairement à abandonner.</t>
@@ -420,26 +417,48 @@
     </r>
   </si>
   <si>
-    <t>Pattern Spécifications</t>
-  </si>
-  <si>
-    <t>03.18</t>
-  </si>
-  <si>
     <t>Le pattern specification permet une gestion explicite des règles métiers. Il convient bien à la démarche DDD, nottament avec son aspect descriptif.</t>
   </si>
   <si>
     <t>Command Pattern</t>
   </si>
   <si>
-    <t>Le commande pattern permet d'implémenter les aspects commadn/event publishing.</t>
+    <t>sprint2</t>
+  </si>
+  <si>
+    <t>L'aspect volatile de Eclipse, en font un outil qui reste universellement reconnu pour une multitude de langages. Toutefois, la tendance est d'utiliser des IDE spécialisé par lanage, ce qui apporte une plus grande robustesse et une plus grande productivité pour le développeur.</t>
+  </si>
+  <si>
+    <t>Architecure hexagonale</t>
+  </si>
+  <si>
+    <r>
+      <t>Le pattern d'archiecture hexagonale, ou architecture en oignon, représente un style d'architecture qui répond parfaitement aux problématiques de la méthode &lt;i&gt;Domain Driven Design&lt;/i&gt;.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Il sera utilisé massivement durant ce travail.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pattern Spécification</t>
+  </si>
+  <si>
+    <t>Le commande pattern permet d'implémenter les aspects command/event publishing.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -515,6 +534,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -542,7 +582,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -567,6 +607,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -912,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1040,7 +1083,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>52</v>
@@ -1106,7 +1149,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>52</v>
@@ -1139,7 +1182,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>52</v>
@@ -1160,7 +1203,7 @@
     </row>
     <row r="8" spans="1:19" ht="16.5">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>44</v>
@@ -1172,7 +1215,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>52</v>
@@ -1205,7 +1248,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>52</v>
@@ -1226,7 +1269,7 @@
     </row>
     <row r="10" spans="1:19" ht="16.5">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -1259,7 +1302,7 @@
     </row>
     <row r="11" spans="1:19" ht="16.5">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>44</v>
@@ -1271,7 +1314,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>52</v>
@@ -1304,7 +1347,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>52</v>
@@ -1337,7 +1380,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>52</v>
@@ -1502,7 +1545,7 @@
         <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>52</v>
@@ -1603,7 +1646,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>52</v>
@@ -1636,7 +1679,7 @@
         <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>52</v>
@@ -1669,7 +1712,7 @@
         <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>52</v>
@@ -1723,7 +1766,7 @@
     </row>
     <row r="25" spans="1:19" ht="16.5">
       <c r="A25" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>44</v>
@@ -1735,7 +1778,7 @@
         <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>52</v>
@@ -1756,7 +1799,7 @@
     </row>
     <row r="26" spans="1:19" ht="16.5">
       <c r="A26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>44</v>
@@ -1768,7 +1811,7 @@
         <v>37</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>52</v>
@@ -1801,7 +1844,7 @@
         <v>37</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>52</v>
@@ -1834,7 +1877,7 @@
         <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>52</v>
@@ -1867,7 +1910,7 @@
         <v>37</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>52</v>
@@ -1900,7 +1943,7 @@
         <v>37</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>52</v>
@@ -1933,7 +1976,7 @@
         <v>37</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>52</v>
@@ -1966,7 +2009,7 @@
         <v>37</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>52</v>
@@ -1999,7 +2042,7 @@
         <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>52</v>
@@ -2020,7 +2063,7 @@
     </row>
     <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>45</v>
@@ -2032,7 +2075,7 @@
         <v>37</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>52</v>
@@ -2040,7 +2083,7 @@
     </row>
     <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>44</v>
@@ -2052,7 +2095,7 @@
         <v>37</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>52</v>
@@ -2060,7 +2103,7 @@
     </row>
     <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>40</v>
@@ -2072,7 +2115,7 @@
         <v>37</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>52</v>
@@ -2080,7 +2123,7 @@
     </row>
     <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>45</v>
@@ -2092,7 +2135,7 @@
         <v>37</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>52</v>
@@ -2100,7 +2143,7 @@
     </row>
     <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>45</v>
@@ -2112,7 +2155,7 @@
         <v>37</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>52</v>
@@ -2120,7 +2163,7 @@
     </row>
     <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>45</v>
@@ -2132,7 +2175,7 @@
         <v>37</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>52</v>
@@ -2140,7 +2183,7 @@
     </row>
     <row r="40" spans="1:19" ht="78.75">
       <c r="A40" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
@@ -2152,7 +2195,7 @@
         <v>37</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>52</v>
@@ -2160,7 +2203,7 @@
     </row>
     <row r="41" spans="1:19" ht="78.75">
       <c r="A41" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>44</v>
@@ -2172,7 +2215,7 @@
         <v>37</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>52</v>
@@ -2180,7 +2223,7 @@
     </row>
     <row r="42" spans="1:19" ht="78.75">
       <c r="A42" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>45</v>
@@ -2192,7 +2235,7 @@
         <v>37</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>52</v>
@@ -2200,7 +2243,7 @@
     </row>
     <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>40</v>
@@ -2212,7 +2255,7 @@
         <v>37</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>52</v>
@@ -2220,7 +2263,7 @@
     </row>
     <row r="44" spans="1:19" ht="31.5">
       <c r="A44" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>40</v>
@@ -2232,7 +2275,7 @@
         <v>37</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>52</v>
@@ -2240,7 +2283,7 @@
     </row>
     <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>40</v>
@@ -2252,7 +2295,7 @@
         <v>37</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>52</v>
@@ -2260,7 +2303,7 @@
     </row>
     <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>45</v>
@@ -2272,7 +2315,7 @@
         <v>37</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>52</v>
@@ -2280,7 +2323,7 @@
     </row>
     <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
@@ -2292,7 +2335,7 @@
         <v>37</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>52</v>
@@ -2300,7 +2343,7 @@
     </row>
     <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>45</v>
@@ -2312,7 +2355,7 @@
         <v>37</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>52</v>
@@ -2320,7 +2363,7 @@
     </row>
     <row r="49" spans="1:6" ht="16.5">
       <c r="A49" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>45</v>
@@ -2332,7 +2375,7 @@
         <v>37</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>52</v>
@@ -2340,7 +2383,7 @@
     </row>
     <row r="50" spans="1:6" ht="16.5">
       <c r="A50" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>44</v>
@@ -2352,7 +2395,7 @@
         <v>37</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>52</v>
@@ -2360,7 +2403,7 @@
     </row>
     <row r="51" spans="1:6" ht="16.5">
       <c r="A51" s="10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>45</v>
@@ -2372,7 +2415,7 @@
         <v>37</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>118</v>
@@ -2380,7 +2423,7 @@
     </row>
     <row r="52" spans="1:6" ht="16.5">
       <c r="A52" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>45</v>
@@ -2392,9 +2435,29 @@
         <v>37</v>
       </c>
       <c r="E52" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5">
+      <c r="A53" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F53" s="16" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2408,13 +2471,13 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B52</xm:sqref>
+          <xm:sqref>B2:B53</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$A$8:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C52</xm:sqref>
+          <xm:sqref>C2:C53</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="133">
   <si>
     <t>name</t>
   </si>
@@ -429,9 +429,6 @@
     <t>L'aspect volatile de Eclipse, en font un outil qui reste universellement reconnu pour une multitude de langages. Toutefois, la tendance est d'utiliser des IDE spécialisé par lanage, ce qui apporte une plus grande robustesse et une plus grande productivité pour le développeur.</t>
   </si>
   <si>
-    <t>Architecure hexagonale</t>
-  </si>
-  <si>
     <r>
       <t>Le pattern d'archiecture hexagonale, ou architecture en oignon, représente un style d'architecture qui répond parfaitement aux problématiques de la méthode &lt;i&gt;Domain Driven Design&lt;/i&gt;.</t>
     </r>
@@ -453,12 +450,42 @@
   <si>
     <t>Le commande pattern permet d'implémenter les aspects command/event publishing.</t>
   </si>
+  <si>
+    <t>Architecture hexagonale</t>
+  </si>
+  <si>
+    <t>Retrofit</t>
+  </si>
+  <si>
+    <t>Retrofit est un client Java pour les appels sur des API Rest. Il apparait comme un des candidats à utiliser pour les appels sur des servcies web de type REST.</t>
+  </si>
+  <si>
+    <t>sprint3</t>
+  </si>
+  <si>
+    <t>Feign</t>
+  </si>
+  <si>
+    <t>Feign est le concurrent direct de Retrofit. Toutefsois son intégration avec Spring cloud le rendent potentiellement plus adapté à une utilisation dans le cadre d'une architecture distribuée</t>
+  </si>
+  <si>
+    <t>Eureka</t>
+  </si>
+  <si>
+    <t>Spring Zuul gateway</t>
+  </si>
+  <si>
+    <t>Eureka est le composant "Service Discovery", utilisé par la stack Spring Cloud. Il fait partie de la stack Open Source Netflix/OSS</t>
+  </si>
+  <si>
+    <t>Zuul est le composant utilisé par Spring Cloud pour les aspects de Gateway API. Il fait partie de la stack open source Netflix/OSS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -555,6 +582,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -582,7 +621,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -610,6 +649,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -955,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2403,7 +2444,7 @@
     </row>
     <row r="51" spans="1:6" ht="16.5">
       <c r="A51" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>45</v>
@@ -2435,7 +2476,7 @@
         <v>37</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>118</v>
@@ -2443,7 +2484,7 @@
     </row>
     <row r="53" spans="1:6" ht="16.5">
       <c r="A53" s="14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>40</v>
@@ -2455,10 +2496,90 @@
         <v>37</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F53" s="16" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5">
+      <c r="A54" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2477,7 +2598,7 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$8:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C53</xm:sqref>
+          <xm:sqref>C2:C54</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="139">
   <si>
     <t>name</t>
   </si>
@@ -480,12 +480,30 @@
   <si>
     <t>Zuul est le composant utilisé par Spring Cloud pour les aspects de Gateway API. Il fait partie de la stack open source Netflix/OSS</t>
   </si>
+  <si>
+    <t>sprint4</t>
+  </si>
+  <si>
+    <t>Kong API Gateway</t>
+  </si>
+  <si>
+    <t>API Gateway Open Souce et haute performance. Basé sur nGinx. Implémentation minimale mais essentielles d'une Gateway API.</t>
+  </si>
+  <si>
+    <t>Guava</t>
+  </si>
+  <si>
+    <t>Adopeter</t>
+  </si>
+  <si>
+    <t>Librairie fourni par Google proposant toute une panoplie d'outils facilitant la vie du dévelopeur (traitement des collections, validations des paramètres, etc..)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -594,6 +612,13 @@
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -621,7 +646,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -651,6 +676,7 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -996,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2580,6 +2606,46 @@
       </c>
       <c r="F57" s="17" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="138">
   <si>
     <t>name</t>
   </si>
@@ -491,9 +491,6 @@
   </si>
   <si>
     <t>Guava</t>
-  </si>
-  <si>
-    <t>Adopeter</t>
   </si>
   <si>
     <t>Librairie fourni par Google proposant toute une panoplie d'outils facilitant la vie du dévelopeur (traitement des collections, validations des paramètres, etc..)</t>
@@ -1025,7 +1022,7 @@
   <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2633,7 +2630,7 @@
         <v>136</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>48</v>
@@ -2642,7 +2639,7 @@
         <v>37</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F59" s="19" t="s">
         <v>133</v>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -494,6 +494,21 @@
   </si>
   <si>
     <t>Librairie fourni par Google proposant toute une panoplie d'outils facilitant la vie du dévelopeur (traitement des collections, validations des paramètres, etc..)</t>
+  </si>
+  <si>
+    <t>Istio</t>
+  </si>
+  <si>
+    <t>Plateforme ouverte permettant de gérer des servives ditribuées ainsi que leurs interactions. Peut être assimilé à une API Gateway survitaminée.</t>
+  </si>
+  <si>
+    <t>sprint9</t>
+  </si>
+  <si>
+    <t>Chaos Engineering</t>
+  </si>
+  <si>
+    <t>Méthode d'architecture simulant des défaillances aléatoire (idéalement jusqu'en production) pour s'assurer de la robustesse et de la résilience d'un système.</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2150,7 +2165,7 @@
         <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>50</v>
@@ -2470,7 +2485,7 @@
         <v>121</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>47</v>
@@ -2610,7 +2625,7 @@
         <v>134</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>50</v>
@@ -2644,6 +2659,49 @@
       <c r="F59" s="19" t="s">
         <v>133</v>
       </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -503,12 +503,6 @@
   </si>
   <si>
     <t>sprint9</t>
-  </si>
-  <si>
-    <t>Chaos Engineering</t>
-  </si>
-  <si>
-    <t>Méthode d'architecture simulant des défaillances aléatoire (idéalement jusqu'en production) pour s'assurer de la robustesse et de la résilience d'un système.</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2681,27 +2675,7 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="B62" s="19"/>
+      <c r="B61" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="138">
   <si>
     <t>name</t>
   </si>
@@ -494,15 +494,6 @@
   </si>
   <si>
     <t>Librairie fourni par Google proposant toute une panoplie d'outils facilitant la vie du dévelopeur (traitement des collections, validations des paramètres, etc..)</t>
-  </si>
-  <si>
-    <t>Istio</t>
-  </si>
-  <si>
-    <t>Plateforme ouverte permettant de gérer des servives ditribuées ainsi que leurs interactions. Peut être assimilé à une API Gateway survitaminée.</t>
-  </si>
-  <si>
-    <t>sprint9</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1022,7 @@
   <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2655,24 +2646,12 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>140</v>
-      </c>
+      <c r="A60" s="17"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
     </row>
     <row r="61" spans="1:6">
       <c r="B61" s="19"/>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="137">
   <si>
     <t>name</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>Plateforme</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>02.18</t>
@@ -1021,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1069,7 +1066,7 @@
     </row>
     <row r="2" spans="1:19" ht="115.5">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>40</v>
@@ -1081,10 +1078,10 @@
         <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1114,10 +1111,10 @@
         <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1147,10 +1144,10 @@
         <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1180,10 +1177,10 @@
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1213,10 +1210,10 @@
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1246,10 +1243,10 @@
         <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1267,7 +1264,7 @@
     </row>
     <row r="8" spans="1:19" ht="16.5">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>44</v>
@@ -1279,10 +1276,10 @@
         <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1312,10 +1309,10 @@
         <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1333,7 +1330,7 @@
     </row>
     <row r="10" spans="1:19" ht="16.5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -1348,7 +1345,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1366,7 +1363,7 @@
     </row>
     <row r="11" spans="1:19" ht="16.5">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>44</v>
@@ -1378,10 +1375,10 @@
         <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1411,10 +1408,10 @@
         <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1444,10 +1441,10 @@
         <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1480,7 +1477,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1513,7 +1510,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1546,7 +1543,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1579,7 +1576,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1609,10 +1606,10 @@
         <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1645,7 +1642,7 @@
         <v>23</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1678,13 +1675,11 @@
         <v>25</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1710,10 +1705,10 @@
         <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1743,10 +1738,10 @@
         <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1776,10 +1771,10 @@
         <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1812,7 +1807,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1830,7 +1825,7 @@
     </row>
     <row r="25" spans="1:19" ht="16.5">
       <c r="A25" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>44</v>
@@ -1842,10 +1837,10 @@
         <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1863,7 +1858,7 @@
     </row>
     <row r="26" spans="1:19" ht="16.5">
       <c r="A26" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>44</v>
@@ -1875,10 +1870,10 @@
         <v>37</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1908,10 +1903,10 @@
         <v>37</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1941,10 +1936,10 @@
         <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1974,10 +1969,10 @@
         <v>37</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2007,10 +2002,10 @@
         <v>37</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2040,10 +2035,10 @@
         <v>37</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2073,10 +2068,10 @@
         <v>37</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2106,10 +2101,10 @@
         <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2127,7 +2122,7 @@
     </row>
     <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>45</v>
@@ -2139,15 +2134,15 @@
         <v>37</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
@@ -2159,15 +2154,15 @@
         <v>37</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>40</v>
@@ -2179,15 +2174,15 @@
         <v>37</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>45</v>
@@ -2199,15 +2194,15 @@
         <v>37</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>45</v>
@@ -2219,15 +2214,15 @@
         <v>37</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>45</v>
@@ -2239,15 +2234,15 @@
         <v>37</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="78.75">
       <c r="A40" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
@@ -2259,15 +2254,15 @@
         <v>37</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="78.75">
       <c r="A41" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>44</v>
@@ -2279,15 +2274,15 @@
         <v>37</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="78.75">
       <c r="A42" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>45</v>
@@ -2299,15 +2294,15 @@
         <v>37</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>40</v>
@@ -2319,15 +2314,15 @@
         <v>37</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="31.5">
       <c r="A44" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>40</v>
@@ -2339,15 +2334,15 @@
         <v>37</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>40</v>
@@ -2359,15 +2354,15 @@
         <v>37</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>45</v>
@@ -2379,15 +2374,15 @@
         <v>37</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
@@ -2399,15 +2394,15 @@
         <v>37</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>45</v>
@@ -2419,15 +2414,15 @@
         <v>37</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5">
       <c r="A49" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>45</v>
@@ -2439,15 +2434,15 @@
         <v>37</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5">
       <c r="A50" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>44</v>
@@ -2459,15 +2454,15 @@
         <v>37</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5">
       <c r="A51" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>40</v>
@@ -2479,15 +2474,15 @@
         <v>37</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5">
       <c r="A52" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>45</v>
@@ -2499,15 +2494,15 @@
         <v>37</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5">
       <c r="A53" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>40</v>
@@ -2519,15 +2514,15 @@
         <v>37</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5">
       <c r="A54" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>45</v>
@@ -2539,15 +2534,15 @@
         <v>37</v>
       </c>
       <c r="E54" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>45</v>
@@ -2559,15 +2554,15 @@
         <v>37</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>45</v>
@@ -2579,15 +2574,15 @@
         <v>37</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>45</v>
@@ -2599,15 +2594,15 @@
         <v>37</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>40</v>
@@ -2619,15 +2614,15 @@
         <v>37</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>40</v>
@@ -2639,10 +2634,10 @@
         <v>37</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:6">

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="138">
   <si>
     <t>name</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Plateforme</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t>02.18</t>
@@ -1016,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1066,7 +1069,7 @@
     </row>
     <row r="2" spans="1:19" ht="115.5">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>40</v>
@@ -1078,10 +1081,10 @@
         <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1111,10 +1114,10 @@
         <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1144,10 +1147,10 @@
         <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1177,10 +1180,10 @@
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1210,10 +1213,10 @@
         <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1243,10 +1246,10 @@
         <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1264,7 +1267,7 @@
     </row>
     <row r="8" spans="1:19" ht="16.5">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>44</v>
@@ -1276,10 +1279,10 @@
         <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1309,10 +1312,10 @@
         <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1330,7 +1333,7 @@
     </row>
     <row r="10" spans="1:19" ht="16.5">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -1345,7 +1348,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1363,7 +1366,7 @@
     </row>
     <row r="11" spans="1:19" ht="16.5">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>44</v>
@@ -1375,10 +1378,10 @@
         <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1408,10 +1411,10 @@
         <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1441,10 +1444,10 @@
         <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1477,7 +1480,7 @@
         <v>42</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1510,7 +1513,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1543,7 +1546,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1576,7 +1579,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1606,10 +1609,10 @@
         <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1642,7 +1645,7 @@
         <v>23</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1675,11 +1678,13 @@
         <v>25</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1705,10 +1710,10 @@
         <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1738,10 +1743,10 @@
         <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1771,10 +1776,10 @@
         <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1807,7 +1812,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1825,7 +1830,7 @@
     </row>
     <row r="25" spans="1:19" ht="16.5">
       <c r="A25" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>44</v>
@@ -1837,10 +1842,10 @@
         <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1858,7 +1863,7 @@
     </row>
     <row r="26" spans="1:19" ht="16.5">
       <c r="A26" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>44</v>
@@ -1870,10 +1875,10 @@
         <v>37</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1903,10 +1908,10 @@
         <v>37</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1936,10 +1941,10 @@
         <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1969,10 +1974,10 @@
         <v>37</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2002,10 +2007,10 @@
         <v>37</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2035,10 +2040,10 @@
         <v>37</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2068,10 +2073,10 @@
         <v>37</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2101,10 +2106,10 @@
         <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2122,7 +2127,7 @@
     </row>
     <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>45</v>
@@ -2134,18 +2139,18 @@
         <v>37</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>50</v>
@@ -2154,15 +2159,15 @@
         <v>37</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>40</v>
@@ -2174,15 +2179,15 @@
         <v>37</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>45</v>
@@ -2194,15 +2199,15 @@
         <v>37</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>45</v>
@@ -2214,15 +2219,15 @@
         <v>37</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>45</v>
@@ -2234,15 +2239,15 @@
         <v>37</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="78.75">
       <c r="A40" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
@@ -2254,15 +2259,15 @@
         <v>37</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="78.75">
       <c r="A41" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>44</v>
@@ -2274,15 +2279,15 @@
         <v>37</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="78.75">
       <c r="A42" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>45</v>
@@ -2294,15 +2299,15 @@
         <v>37</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>40</v>
@@ -2314,15 +2319,15 @@
         <v>37</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="31.5">
       <c r="A44" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>40</v>
@@ -2334,15 +2339,15 @@
         <v>37</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>40</v>
@@ -2354,15 +2359,15 @@
         <v>37</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>45</v>
@@ -2374,15 +2379,15 @@
         <v>37</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
@@ -2394,15 +2399,15 @@
         <v>37</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>45</v>
@@ -2414,15 +2419,15 @@
         <v>37</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5">
       <c r="A49" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>45</v>
@@ -2434,15 +2439,15 @@
         <v>37</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5">
       <c r="A50" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>44</v>
@@ -2454,18 +2459,18 @@
         <v>37</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5">
       <c r="A51" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>47</v>
@@ -2474,15 +2479,15 @@
         <v>37</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5">
       <c r="A52" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>45</v>
@@ -2494,15 +2499,15 @@
         <v>37</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="16.5">
       <c r="A53" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>40</v>
@@ -2514,15 +2519,15 @@
         <v>37</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16.5">
       <c r="A54" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>45</v>
@@ -2534,15 +2539,15 @@
         <v>37</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>45</v>
@@ -2554,15 +2559,15 @@
         <v>37</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>45</v>
@@ -2574,15 +2579,15 @@
         <v>37</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>45</v>
@@ -2594,18 +2599,18 @@
         <v>37</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>50</v>
@@ -2614,15 +2619,15 @@
         <v>37</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>40</v>
@@ -2634,22 +2639,11 @@
         <v>37</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="17"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="B61" s="19"/>
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -494,6 +494,15 @@
   </si>
   <si>
     <t>Librairie fourni par Google proposant toute une panoplie d'outils facilitant la vie du dévelopeur (traitement des collections, validations des paramètres, etc..)</t>
+  </si>
+  <si>
+    <t>Istio</t>
+  </si>
+  <si>
+    <t>Plateforme de gestion de services distribuées. Peut être considéré comme une API Gateway survitaminée</t>
+  </si>
+  <si>
+    <t>sprint9</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2643,6 +2652,26 @@
       </c>
       <c r="F59" s="19" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -503,6 +503,12 @@
   </si>
   <si>
     <t>sprint9</t>
+  </si>
+  <si>
+    <t>Chaos Engineering</t>
+  </si>
+  <si>
+    <t>Cette approche consiste à générer des pannes volontairement dans l'architecture de production afin d'observer les conséquences de cette défaillance, in-situ. L'objectif de cette démarche est de prendre des mesures qui permettront de contrer l'éventuel effet papillon</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2672,6 +2678,23 @@
       </c>
       <c r="F60" s="17" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/xls/tm-mas.xlsx
+++ b/xls/tm-mas.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -361,12 +361,6 @@
   </si>
   <si>
     <t>La pratique du pair programming sur des tâches le nécessitant est une très bonne pratique de partage de connaissance, de montée en compétence, et surtout de qualité.</t>
-  </si>
-  <si>
-    <t>Kong est une passerelle API open source construite et sponsorisée par Mashape, qui propose également une offre d'entreprise intégrant Kong avec ses outils d'analyse d'API et de portail de développeur. L'outil être déployés dans diverses configurations, en tant que passerelle d'API de périphérie ou proxy d'API interne. OpenResty, à travers ses modules Nginx, fournit une base solide et performante, avec des plugins Lua pour les extensions. Kong peut soit utiliser PostgreSQL pour les déploiements à région unique, soit Cassandra pour les configurations multirégion. Nos développeurs ont apprécié la haute performance de Kong, son approche API-first (qui permet l'automatisation de sa configuration) et sa facilité de déploiement en tant que conteneur. À la différence des passerelles API trop ambitieuses, Kong API Gateway possède un ensemble de fonctionnalités plus réduit, mais implémente l'ensemble essentiel de fonctionnalités de passerelle API telles que le contrôle du trafic, la sécurité, la journalisation, la surveillance et l'authentification. Nous sommes ravis d'évaluer Kong dans une configuration de side-car dans un proche avenir.</t>
-  </si>
-  <si>
-    <t>Kong</t>
   </si>
   <si>
     <t>Spring Cloud Contract</t>
@@ -509,6 +503,12 @@
   </si>
   <si>
     <t>Cette approche consiste à générer des pannes volontairement dans l'architecture de production afin d'observer les conséquences de cette défaillance, in-situ. L'objectif de cette démarche est de prendre des mesures qui permettront de contrer l'éventuel effet papillon</t>
+  </si>
+  <si>
+    <t>Event Sourcing</t>
+  </si>
+  <si>
+    <t>Approche de gestion des données métiers basées non plus sur l'état des entitées, mais sur l'historique des modifications apportés à l'entitée. L'état n'est plus stockée, mais reconstituée sur la base de l'historique des événements</t>
   </si>
 </sst>
 </file>
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1162,7 +1162,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>52</v>
@@ -2382,19 +2382,19 @@
     </row>
     <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>106</v>
+      <c r="E46" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>52</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
@@ -2428,13 +2428,13 @@
         <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>52</v>
@@ -2442,47 +2442,47 @@
     </row>
     <row r="49" spans="1:6" ht="16.5">
       <c r="A49" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5">
+      <c r="A50" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="16.5">
-      <c r="A50" s="4" t="s">
+      <c r="D50" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>52</v>
+      <c r="F50" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5">
       <c r="A51" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>45</v>
@@ -2493,71 +2493,71 @@
       <c r="D51" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F51" s="12" t="s">
+    </row>
+    <row r="52" spans="1:6" ht="16.5">
+      <c r="A52" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="16.5">
-      <c r="A52" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B52" s="10" t="s">
+      <c r="F52" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5">
+      <c r="A53" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="16.5">
-      <c r="A53" s="14" t="s">
+      <c r="C53" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="16.5">
+      <c r="F53" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2574,15 +2574,15 @@
         <v>37</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>45</v>
@@ -2594,30 +2594,30 @@
         <v>37</v>
       </c>
       <c r="E56" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2625,10 +2625,10 @@
         <v>134</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D58" s="19" t="s">
         <v>37</v>
@@ -2637,47 +2637,47 @@
         <v>135</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="17" t="s">
         <v>136</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="19" t="s">
-        <v>133</v>
+      <c r="F59" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2695,6 +2695,9 @@
       </c>
       <c r="E61" s="17" t="s">
         <v>142</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2707,13 +2710,13 @@
           <x14:formula1>
             <xm:f>Feuil2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B53</xm:sqref>
+          <xm:sqref>B2:B52</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Feuil2!$A$8:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C54</xm:sqref>
+          <xm:sqref>C2:C53</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
